--- a/dev/oboe/lter-units-modified.xlsx
+++ b/dev/oboe/lter-units-modified.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="21600" windowHeight="14660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1420" yWindow="1680" windowWidth="21600" windowHeight="14660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lter-units.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,1285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="489">
+  <si>
+    <t>footGoldCoast</t>
+  </si>
+  <si>
+    <t>footPound</t>
+  </si>
+  <si>
+    <t>footSquared</t>
+  </si>
+  <si>
+    <t>Foot_Gold_Coast</t>
+  </si>
+  <si>
+    <t>Foot_US</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t>grad</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>gramPerCentimeterCubed</t>
+  </si>
+  <si>
+    <t>kilogramPerCubicMeter</t>
+  </si>
+  <si>
+    <t>massDensity</t>
+  </si>
+  <si>
+    <t>gramPerCentimeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>kilogramsPerMeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>arealMassDensityRate</t>
+  </si>
+  <si>
+    <t>gramPerGram</t>
+  </si>
+  <si>
+    <t>massPerMass</t>
+  </si>
+  <si>
+    <t>gramPerHectarePerDay</t>
+  </si>
+  <si>
+    <t>gramPerLiter</t>
+  </si>
+  <si>
+    <t>gramPerLiterPerDay</t>
+  </si>
+  <si>
+    <t>volumetricMassDensityRate</t>
+  </si>
+  <si>
+    <t>gramPerMeterCubed</t>
+  </si>
+  <si>
+    <t>kilogramPerMeterCubed</t>
+  </si>
+  <si>
+    <t>gramPerMeterSquaredPerYear</t>
+  </si>
+  <si>
+    <t>gramPerMilliliter</t>
+  </si>
+  <si>
+    <t>centimeterCubed</t>
+  </si>
+  <si>
+    <t>meterCubed</t>
+  </si>
+  <si>
+    <t>centimeterCubedPerCentimeterCubed</t>
+  </si>
+  <si>
+    <t>✔✔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔✔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificVolume</t>
+  </si>
+  <si>
+    <t>meterCubedPerSecond</t>
+  </si>
+  <si>
+    <t>cubicMetersPerSecond</t>
+  </si>
+  <si>
+    <t>micrometerCubedPerGram</t>
+  </si>
+  <si>
+    <t>cubicMicrometersPerGram</t>
+  </si>
+  <si>
+    <t>DecaysPerMinutePerGram</t>
+  </si>
+  <si>
+    <t>amountOfDecaysWeightFlux</t>
+  </si>
+  <si>
+    <t>decibar</t>
+  </si>
+  <si>
+    <t>decigram</t>
+  </si>
+  <si>
+    <t>decimeter</t>
+  </si>
+  <si>
+    <t>decisecond</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>radian</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>dekagram</t>
+  </si>
+  <si>
+    <t>dekameter</t>
+  </si>
+  <si>
+    <t>dekasecond</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>einsteinPerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>illuminance</t>
+  </si>
+  <si>
+    <t>einsteinsPerSquareMeterPerDay</t>
+  </si>
+  <si>
+    <t>deprecatedToId</t>
+  </si>
+  <si>
+    <t>leafareaPerShortShoot</t>
+  </si>
+  <si>
+    <t>✔✔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>metersPerMinute</t>
+  </si>
+  <si>
+    <t>metersPerSecondSquared</t>
+  </si>
+  <si>
+    <t>meterSquared</t>
+  </si>
+  <si>
+    <t>gramPerThousandMeterCubed</t>
+  </si>
+  <si>
+    <t>gramPerYear</t>
+  </si>
+  <si>
+    <t>kilogramsPerSecond</t>
+  </si>
+  <si>
+    <t>massFlux</t>
+  </si>
+  <si>
+    <t>gramsPerCentimeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>gramsPerCubicCentimeter</t>
+  </si>
+  <si>
+    <t>gramsPerCubicMeter</t>
+  </si>
+  <si>
+    <t>gramsPerGram</t>
+  </si>
+  <si>
+    <t>gramsPerHectarePerDay</t>
+  </si>
+  <si>
+    <t>deprecatedToName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>parentSIId</t>
+  </si>
+  <si>
+    <t>parentSIName</t>
+  </si>
+  <si>
+    <t>quantityId</t>
+  </si>
+  <si>
+    <t>quantityName</t>
+  </si>
+  <si>
+    <t>siConstant</t>
+  </si>
+  <si>
+    <t>siMultiplier</t>
+  </si>
+  <si>
+    <t>uniqueId</t>
+  </si>
+  <si>
+    <t>0.2WattPerMeterSquaredPerMilliVolt</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>squareMeter</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>ampere</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>amperePerMeter</t>
+  </si>
+  <si>
+    <t>magneticFieldStrength</t>
+  </si>
+  <si>
+    <t>amperePerMeterSquared</t>
+  </si>
+  <si>
+    <t>currentDensity</t>
+  </si>
+  <si>
+    <t>amperePerSquareMeter</t>
+  </si>
+  <si>
+    <t>angstrom</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>becquerel</t>
+  </si>
+  <si>
+    <t>radionucleotideActivity</t>
+  </si>
+  <si>
+    <t>kilogramPerMeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>kilogramPerMeterSquaredPerYear</t>
+  </si>
+  <si>
+    <t>kilogramPerSecond</t>
+  </si>
+  <si>
+    <t>kilogramPerYear</t>
+  </si>
+  <si>
+    <t>amountOfSubstanceWeightFlux</t>
+  </si>
+  <si>
+    <t>kilogramsPerCubicMeter</t>
+  </si>
+  <si>
+    <t>kilogramsPerHectarePerYear</t>
+  </si>
+  <si>
+    <t>kilogramsPerMeterSquaredPerYear</t>
+  </si>
+  <si>
+    <t>kilohertz</t>
+  </si>
+  <si>
+    <t>kiloliter</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>kilometerPerHour</t>
+  </si>
+  <si>
+    <t>kilometersPerHour</t>
+  </si>
+  <si>
+    <t>fahrenheitDegree</t>
+  </si>
+  <si>
+    <t>fahrenheit</t>
+  </si>
+  <si>
+    <t>farad</t>
+  </si>
+  <si>
+    <t>capacitance</t>
+  </si>
+  <si>
+    <t>fathom</t>
+  </si>
+  <si>
+    <t>microMolesPerMole</t>
+  </si>
+  <si>
+    <t>micron</t>
+  </si>
+  <si>
+    <t>microsecond</t>
+  </si>
+  <si>
+    <t>britishThermalUnit</t>
+  </si>
+  <si>
+    <t>joule</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>bushel</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>bushelPerAcre</t>
+  </si>
+  <si>
+    <t>litersPerSquareMeter</t>
+  </si>
+  <si>
+    <t>volumetricArea</t>
+  </si>
+  <si>
+    <t>bushelsPerAcre</t>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>candela</t>
+  </si>
+  <si>
+    <t>luminosity</t>
+  </si>
+  <si>
+    <t>candelaPerMeterSquared</t>
+  </si>
+  <si>
+    <t>luminance</t>
+  </si>
+  <si>
+    <t>candelaPerSquareMeter</t>
+  </si>
+  <si>
+    <t>catchPerUnitEffort</t>
+  </si>
+  <si>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>kelvin</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>centigram</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>waveNumber</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocalMeter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>footPerDay</t>
+  </si>
+  <si>
+    <t>feetPerDay</t>
+  </si>
+  <si>
+    <t>footPerHour</t>
+  </si>
+  <si>
+    <t>feetPerHour</t>
+  </si>
+  <si>
+    <t>footPerSecond</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>footSquaredPerDay</t>
+  </si>
+  <si>
+    <t>feetSquaredPerDay</t>
+  </si>
+  <si>
+    <t>metersSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>transmissivity</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>milligramPerMeterSquaredPerYear</t>
+  </si>
+  <si>
+    <t>milligramPerMilliliter</t>
+  </si>
+  <si>
+    <t>milligramsPerCubicMeter</t>
+  </si>
+  <si>
+    <t>milligramsPerCubicMeterPerDay</t>
+  </si>
+  <si>
+    <t>milligramsPerCubicMeterPerHour</t>
+  </si>
+  <si>
+    <t>milligramsPerGramPerMole</t>
+  </si>
+  <si>
+    <t>milligramsPerLiter</t>
+  </si>
+  <si>
+    <t>milliGramsPerMilliLiter</t>
+  </si>
+  <si>
+    <t>meterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>meterSquaredPerKilogram</t>
+  </si>
+  <si>
+    <t>specificArea</t>
+  </si>
+  <si>
+    <t>meterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>volumePerVolume</t>
+  </si>
+  <si>
+    <t>centimeterPerSecond</t>
+  </si>
+  <si>
+    <t>metersPerSecond</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>centimeterPerYear</t>
+  </si>
+  <si>
+    <t>centimetersPerSecond</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>centimeterSquared</t>
+  </si>
+  <si>
+    <t>centisecond</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>coulomb</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>countPerLongline</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>cubicCentimetersPerCubicCentimeters</t>
+  </si>
+  <si>
+    <t>footCubedPerSecond</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>litersPerSecond</t>
+  </si>
+  <si>
+    <t>volumetricRate</t>
+  </si>
+  <si>
+    <t>inchCubed</t>
+  </si>
+  <si>
+    <t>cubicInch</t>
+  </si>
+  <si>
+    <t>cubicMeter</t>
+  </si>
+  <si>
+    <t>meterCubedPerKilogram</t>
+  </si>
+  <si>
+    <t>cubicMeterPerKilogram</t>
+  </si>
+  <si>
+    <t>microgramsPerLiter</t>
+  </si>
+  <si>
+    <t>microgramsPerLiterPerDay</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>micrometerSquared</t>
+  </si>
+  <si>
+    <t>micromolar</t>
+  </si>
+  <si>
+    <t>micromolePerCentimeterCubed</t>
+  </si>
+  <si>
+    <t>micromolePerKilogram</t>
+  </si>
+  <si>
+    <t>micromolePerLiter</t>
+  </si>
+  <si>
+    <t>micromolePerMeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>kilometerSquared</t>
+  </si>
+  <si>
+    <t>kilopascal</t>
+  </si>
+  <si>
+    <t>kilosecond</t>
+  </si>
+  <si>
+    <t>kilovolt</t>
+  </si>
+  <si>
+    <t>volt</t>
+  </si>
+  <si>
+    <t>potentialDifference</t>
+  </si>
+  <si>
+    <t>kilowatt</t>
+  </si>
+  <si>
+    <t>watt</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>kilowattPerMeterSquared</t>
+  </si>
+  <si>
+    <t>knots</t>
+  </si>
+  <si>
+    <t>knot</t>
+  </si>
+  <si>
+    <t>practicalSalinityUnits</t>
+  </si>
+  <si>
+    <t>QSU</t>
+  </si>
+  <si>
+    <t>QSUPerMilligramPerLiter</t>
+  </si>
+  <si>
+    <t>leafareaPerSquareMeter</t>
+  </si>
+  <si>
+    <t>leafnumberPerShortShoot</t>
+  </si>
+  <si>
+    <t>Link_Clarke</t>
+  </si>
+  <si>
+    <t>literPerHectare</t>
+  </si>
+  <si>
+    <t>literPerMeterSquared</t>
+  </si>
+  <si>
+    <t>literPerSecond</t>
+  </si>
+  <si>
+    <t>litersPerHectare</t>
+  </si>
+  <si>
+    <t>lumen</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>megagram</t>
+  </si>
+  <si>
+    <t>megahertz</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>megaJoulePerMeterSquared</t>
+  </si>
+  <si>
+    <t>irradiation</t>
+  </si>
+  <si>
+    <t>megajoulePerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>arealEnergyDensityRate</t>
+  </si>
+  <si>
+    <t>megameter</t>
+  </si>
+  <si>
+    <t>megapascal</t>
+  </si>
+  <si>
+    <t>megasecond</t>
+  </si>
+  <si>
+    <t>megavolt</t>
+  </si>
+  <si>
+    <t>megawatt</t>
+  </si>
+  <si>
+    <t>meterPerDay</t>
+  </si>
+  <si>
+    <t>meterPerGram</t>
+  </si>
+  <si>
+    <t>massSpecificLength</t>
+  </si>
+  <si>
+    <t>meterPerMinute</t>
+  </si>
+  <si>
+    <t>meterPerSecond</t>
+  </si>
+  <si>
+    <t>meterPerSecondSquared</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>metersPerDay</t>
+  </si>
+  <si>
+    <t>metersPerGram</t>
+  </si>
+  <si>
+    <t>nanogramsPerSquareMeterPerMinute</t>
+  </si>
+  <si>
+    <t>nanometer</t>
+  </si>
+  <si>
+    <t>nanomolePerGramPerSecond</t>
+  </si>
+  <si>
+    <t>nanomolePerLiter</t>
+  </si>
+  <si>
+    <t>nanomolesPerGramPerSecond</t>
+  </si>
+  <si>
+    <t>nanomolesPerLiter</t>
+  </si>
+  <si>
+    <t>nanosecond</t>
+  </si>
+  <si>
+    <t>nauticalMile</t>
+  </si>
+  <si>
+    <t>nephelometricturbidityunit</t>
+  </si>
+  <si>
+    <t>newton</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>nominalDay</t>
+  </si>
+  <si>
+    <t>nominalHour</t>
+  </si>
+  <si>
+    <t>nominalLeapYear</t>
+  </si>
+  <si>
+    <t>nominalMinute</t>
+  </si>
+  <si>
+    <t>nominalWeek</t>
+  </si>
+  <si>
+    <t>nominalYear</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>numberPerAcre</t>
+  </si>
+  <si>
+    <t>numberPerMeterSquared</t>
+  </si>
+  <si>
+    <t>arealDensity</t>
+  </si>
+  <si>
+    <t>numberPerGram</t>
+  </si>
+  <si>
+    <t>massSpecificCount</t>
+  </si>
+  <si>
+    <t>numberPerKilometerSquared</t>
+  </si>
+  <si>
+    <t>numberPerLiter</t>
+  </si>
+  <si>
+    <t>numberPerMeterCubed</t>
+  </si>
+  <si>
+    <t>volumetricDensity</t>
+  </si>
+  <si>
+    <t>milligramsPerShortShoot</t>
+  </si>
+  <si>
+    <t>milligramsPerShortShootPerDay</t>
+  </si>
+  <si>
+    <t>gramsPerLiter</t>
+  </si>
+  <si>
+    <t>gramsPerLiterPerDay</t>
+  </si>
+  <si>
+    <t>gramsPerMeterSquaredPerYear</t>
+  </si>
+  <si>
+    <t>gramsPerMilliliter</t>
+  </si>
+  <si>
+    <t>gramsPerSquareMeterPerDay</t>
+  </si>
+  <si>
+    <t>gramsPerThousandMetersCubed</t>
+  </si>
+  <si>
+    <t>gramsPerYear</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>specificEnergy</t>
+  </si>
+  <si>
+    <t>hectare</t>
+  </si>
+  <si>
+    <t>hectogram</t>
+  </si>
+  <si>
+    <t>hectometer</t>
+  </si>
+  <si>
+    <t>hectoPascal</t>
+  </si>
+  <si>
+    <t>hectosecond</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>inductance</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>katal</t>
+  </si>
+  <si>
+    <t>catalyticActivity</t>
+  </si>
+  <si>
+    <t>kilogramPerHectarePerYear</t>
+  </si>
+  <si>
+    <t>millimolesPerGram</t>
+  </si>
+  <si>
+    <t>milliohmPerCentimeter</t>
+  </si>
+  <si>
+    <t>siemen</t>
+  </si>
+  <si>
+    <t>conductance</t>
+  </si>
+  <si>
+    <t>millisecond</t>
+  </si>
+  <si>
+    <t>millisiemenPerCentimeter</t>
+  </si>
+  <si>
+    <t>millisiemensPerCentimeter</t>
+  </si>
+  <si>
+    <t>millivolt</t>
+  </si>
+  <si>
+    <t>milliwatt</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>molality</t>
+  </si>
+  <si>
+    <t>molarity</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>molePerMeterCubed</t>
+  </si>
+  <si>
+    <t>molePerGram</t>
+  </si>
+  <si>
+    <t>molePerKilogram</t>
+  </si>
+  <si>
+    <t>microMolesPerKilogram</t>
+  </si>
+  <si>
+    <t>microMolesPerLiter</t>
+  </si>
+  <si>
+    <t>microMolesPerMetersSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>CompositeUnits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s4 A2 / m2 kg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsiemensPerCentimeter</t>
+  </si>
+  <si>
+    <t>siemens</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>milePerHour</t>
+  </si>
+  <si>
+    <t>milePerMinute</t>
+  </si>
+  <si>
+    <t>milePerSecond</t>
+  </si>
+  <si>
+    <t>milesPerHour</t>
+  </si>
+  <si>
+    <t>milesPerMinute</t>
+  </si>
+  <si>
+    <t>milesPerSecond</t>
+  </si>
+  <si>
+    <t>mileSquared</t>
+  </si>
+  <si>
+    <t>millibar</t>
+  </si>
+  <si>
+    <t>milligram</t>
+  </si>
+  <si>
+    <t>milligramPerLiter</t>
+  </si>
+  <si>
+    <t>milligramPerMeterCubed</t>
+  </si>
+  <si>
+    <t>milligramPerMeterCubedPerDay</t>
+  </si>
+  <si>
+    <t>milligramPerMeterCubedPerHour</t>
+  </si>
+  <si>
+    <t>milligramPerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>m2/s2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mol/s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m / s2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s2 A2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd / m2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s2 A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s3 A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg / m s2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg m2 / s3 A2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2 / s2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>short-shootPerMeterSquared</t>
+  </si>
+  <si>
+    <t>shortShootPerSquareMeter</t>
+  </si>
+  <si>
+    <t>siemenPerMeter</t>
+  </si>
+  <si>
+    <t>siemensPerMeter</t>
+  </si>
+  <si>
+    <t>sievert</t>
+  </si>
+  <si>
+    <t>doseEquivalent</t>
+  </si>
+  <si>
+    <t>squareCentimeters</t>
+  </si>
+  <si>
+    <t>squaredCentimetersPerLeafPerDay</t>
+  </si>
+  <si>
+    <t>squareFoot</t>
+  </si>
+  <si>
+    <t>squareKilometers</t>
+  </si>
+  <si>
+    <t>squareMeterPerKilogram</t>
+  </si>
+  <si>
+    <t>squareMicroMeter</t>
+  </si>
+  <si>
+    <t>squareMile</t>
+  </si>
+  <si>
+    <t>squareMillimeters</t>
+  </si>
+  <si>
+    <t>yardSquared</t>
+  </si>
+  <si>
+    <t>squareYard</t>
+  </si>
+  <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>magneticFluxDensity</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>tonne</t>
+  </si>
+  <si>
+    <t>tonnePerYear</t>
+  </si>
+  <si>
+    <t>tonnesPerYear</t>
+  </si>
+  <si>
+    <t>metersSquaredPerDay</t>
+  </si>
+  <si>
+    <t>microatmosphere</t>
+  </si>
+  <si>
+    <t>microeinsteinPerMeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>microEinsteinPerMeterSquaredPerSecond</t>
+  </si>
+  <si>
+    <t>arealConcentrationFlux</t>
+  </si>
+  <si>
+    <t>microEinsteinsPerSquareMeterPerSecond</t>
+  </si>
+  <si>
+    <t>microequivalentPerLiter</t>
+  </si>
+  <si>
+    <t>molePerCubicMeter</t>
+  </si>
+  <si>
+    <t>amountOfSubstanceConcentration</t>
+  </si>
+  <si>
+    <t>microequivalentsPerLiter</t>
+  </si>
+  <si>
+    <t>microgram</t>
+  </si>
+  <si>
+    <t>microgramPerGram</t>
+  </si>
+  <si>
+    <t>microgramPerLiter</t>
+  </si>
+  <si>
+    <t>microgramPerLiterPerDay</t>
+  </si>
+  <si>
+    <t>microgramPerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>microgramsPerGram</t>
+  </si>
+  <si>
+    <t>massPerMassFlux</t>
+  </si>
+  <si>
+    <t>What is the characteristic for this???</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wattPerMeterSquared</t>
+  </si>
+  <si>
+    <t>irradiance</t>
+  </si>
+  <si>
+    <t>wattPerMeterSquaredPerNanometer</t>
+  </si>
+  <si>
+    <t>wattsPerSquareMeter</t>
+  </si>
+  <si>
+    <t>weber</t>
+  </si>
+  <si>
+    <t>magneticFlux</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>yardPerSecond</t>
+  </si>
+  <si>
+    <t>yardsPerSecond</t>
+  </si>
+  <si>
+    <t>Yard_Indian</t>
+  </si>
+  <si>
+    <t>Yard_Sears</t>
+  </si>
+  <si>
+    <t>BASE UNITS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPOSITE UNITS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>numberPerMicroliter</t>
+  </si>
+  <si>
+    <t>numberPerMilliliter</t>
+  </si>
+  <si>
+    <t>numberPerNumber</t>
+  </si>
+  <si>
+    <t>numberPerOneTenthofMeterSquared</t>
+  </si>
+  <si>
+    <t>numberPerShortShoot</t>
+  </si>
+  <si>
+    <t>quart</t>
+  </si>
+  <si>
+    <t>molePerKilogramPerSecond</t>
+  </si>
+  <si>
+    <t>molePerMeterSquaredPerDay</t>
+  </si>
+  <si>
+    <t>molesPerGram</t>
+  </si>
+  <si>
+    <t>molesPerHour</t>
+  </si>
+  <si>
+    <t>molesPerKilogramPerSecond</t>
+  </si>
+  <si>
+    <t>nanogram</t>
+  </si>
+  <si>
+    <t>nanogramPerLiter</t>
+  </si>
+  <si>
+    <t>nanogramPerLiterPerHour</t>
+  </si>
   <si>
     <t>microgramPerGramPerDay</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -268,1280 +1546,6 @@
   <si>
     <t>s3 A2 / m2 kg1</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2/s2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mol/s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m / s2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s2 A2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd / m2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s2 A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s3 A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg / m s2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg m2 / s3 A2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2 / s2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>short-shootPerMeterSquared</t>
-  </si>
-  <si>
-    <t>shortShootPerSquareMeter</t>
-  </si>
-  <si>
-    <t>siemenPerMeter</t>
-  </si>
-  <si>
-    <t>siemensPerMeter</t>
-  </si>
-  <si>
-    <t>sievert</t>
-  </si>
-  <si>
-    <t>doseEquivalent</t>
-  </si>
-  <si>
-    <t>squareCentimeters</t>
-  </si>
-  <si>
-    <t>squaredCentimetersPerLeafPerDay</t>
-  </si>
-  <si>
-    <t>squareFoot</t>
-  </si>
-  <si>
-    <t>squareKilometers</t>
-  </si>
-  <si>
-    <t>squareMeterPerKilogram</t>
-  </si>
-  <si>
-    <t>squareMicroMeter</t>
-  </si>
-  <si>
-    <t>squareMile</t>
-  </si>
-  <si>
-    <t>squareMillimeters</t>
-  </si>
-  <si>
-    <t>yardSquared</t>
-  </si>
-  <si>
-    <t>squareYard</t>
-  </si>
-  <si>
-    <t>tesla</t>
-  </si>
-  <si>
-    <t>magneticFluxDensity</t>
-  </si>
-  <si>
-    <t>ton</t>
-  </si>
-  <si>
-    <t>tonne</t>
-  </si>
-  <si>
-    <t>tonnePerYear</t>
-  </si>
-  <si>
-    <t>tonnesPerYear</t>
-  </si>
-  <si>
-    <t>metersSquaredPerDay</t>
-  </si>
-  <si>
-    <t>microatmosphere</t>
-  </si>
-  <si>
-    <t>microeinsteinPerMeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>microEinsteinPerMeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>arealConcentrationFlux</t>
-  </si>
-  <si>
-    <t>microEinsteinsPerSquareMeterPerSecond</t>
-  </si>
-  <si>
-    <t>microequivalentPerLiter</t>
-  </si>
-  <si>
-    <t>molePerCubicMeter</t>
-  </si>
-  <si>
-    <t>amountOfSubstanceConcentration</t>
-  </si>
-  <si>
-    <t>microequivalentsPerLiter</t>
-  </si>
-  <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>microgramPerGram</t>
-  </si>
-  <si>
-    <t>microgramPerLiter</t>
-  </si>
-  <si>
-    <t>microgramPerLiterPerDay</t>
-  </si>
-  <si>
-    <t>microgramPerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>microgramsPerGram</t>
-  </si>
-  <si>
-    <t>massPerMassFlux</t>
-  </si>
-  <si>
-    <t>What is the characteristic for this???</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>proportion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wattPerMeterSquared</t>
-  </si>
-  <si>
-    <t>irradiance</t>
-  </si>
-  <si>
-    <t>wattPerMeterSquaredPerNanometer</t>
-  </si>
-  <si>
-    <t>wattsPerSquareMeter</t>
-  </si>
-  <si>
-    <t>weber</t>
-  </si>
-  <si>
-    <t>magneticFlux</t>
-  </si>
-  <si>
-    <t>yard</t>
-  </si>
-  <si>
-    <t>yardPerSecond</t>
-  </si>
-  <si>
-    <t>yardsPerSecond</t>
-  </si>
-  <si>
-    <t>Yard_Indian</t>
-  </si>
-  <si>
-    <t>Yard_Sears</t>
-  </si>
-  <si>
-    <t>BASE UNITS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPOSITE UNITS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>numberPerMicroliter</t>
-  </si>
-  <si>
-    <t>numberPerMilliliter</t>
-  </si>
-  <si>
-    <t>numberPerNumber</t>
-  </si>
-  <si>
-    <t>numberPerOneTenthofMeterSquared</t>
-  </si>
-  <si>
-    <t>numberPerShortShoot</t>
-  </si>
-  <si>
-    <t>quart</t>
-  </si>
-  <si>
-    <t>molePerKilogramPerSecond</t>
-  </si>
-  <si>
-    <t>molePerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>molesPerGram</t>
-  </si>
-  <si>
-    <t>molesPerHour</t>
-  </si>
-  <si>
-    <t>molesPerKilogramPerSecond</t>
-  </si>
-  <si>
-    <t>nanogram</t>
-  </si>
-  <si>
-    <t>nanogramPerLiter</t>
-  </si>
-  <si>
-    <t>nanogramPerLiterPerHour</t>
-  </si>
-  <si>
-    <t>nanogramsPerSquareMeterPerMinute</t>
-  </si>
-  <si>
-    <t>nanometer</t>
-  </si>
-  <si>
-    <t>nanomolePerGramPerSecond</t>
-  </si>
-  <si>
-    <t>nanomolePerLiter</t>
-  </si>
-  <si>
-    <t>nanomolesPerGramPerSecond</t>
-  </si>
-  <si>
-    <t>nanomolesPerLiter</t>
-  </si>
-  <si>
-    <t>nanosecond</t>
-  </si>
-  <si>
-    <t>nauticalMile</t>
-  </si>
-  <si>
-    <t>nephelometricturbidityunit</t>
-  </si>
-  <si>
-    <t>newton</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>nominalDay</t>
-  </si>
-  <si>
-    <t>nominalHour</t>
-  </si>
-  <si>
-    <t>nominalLeapYear</t>
-  </si>
-  <si>
-    <t>nominalMinute</t>
-  </si>
-  <si>
-    <t>nominalWeek</t>
-  </si>
-  <si>
-    <t>nominalYear</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>numberPerAcre</t>
-  </si>
-  <si>
-    <t>numberPerMeterSquared</t>
-  </si>
-  <si>
-    <t>arealDensity</t>
-  </si>
-  <si>
-    <t>numberPerGram</t>
-  </si>
-  <si>
-    <t>massSpecificCount</t>
-  </si>
-  <si>
-    <t>numberPerKilometerSquared</t>
-  </si>
-  <si>
-    <t>numberPerLiter</t>
-  </si>
-  <si>
-    <t>numberPerMeterCubed</t>
-  </si>
-  <si>
-    <t>volumetricDensity</t>
-  </si>
-  <si>
-    <t>milligramsPerShortShoot</t>
-  </si>
-  <si>
-    <t>milligramsPerShortShootPerDay</t>
-  </si>
-  <si>
-    <t>gramsPerLiter</t>
-  </si>
-  <si>
-    <t>gramsPerLiterPerDay</t>
-  </si>
-  <si>
-    <t>gramsPerMeterSquaredPerYear</t>
-  </si>
-  <si>
-    <t>gramsPerMilliliter</t>
-  </si>
-  <si>
-    <t>gramsPerSquareMeterPerDay</t>
-  </si>
-  <si>
-    <t>gramsPerThousandMetersCubed</t>
-  </si>
-  <si>
-    <t>gramsPerYear</t>
-  </si>
-  <si>
-    <t>gray</t>
-  </si>
-  <si>
-    <t>specificEnergy</t>
-  </si>
-  <si>
-    <t>hectare</t>
-  </si>
-  <si>
-    <t>hectogram</t>
-  </si>
-  <si>
-    <t>hectometer</t>
-  </si>
-  <si>
-    <t>hectoPascal</t>
-  </si>
-  <si>
-    <t>hectosecond</t>
-  </si>
-  <si>
-    <t>henry</t>
-  </si>
-  <si>
-    <t>inductance</t>
-  </si>
-  <si>
-    <t>hertz</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>katal</t>
-  </si>
-  <si>
-    <t>catalyticActivity</t>
-  </si>
-  <si>
-    <t>kilogramPerHectarePerYear</t>
-  </si>
-  <si>
-    <t>millimolesPerGram</t>
-  </si>
-  <si>
-    <t>milliohmPerCentimeter</t>
-  </si>
-  <si>
-    <t>siemen</t>
-  </si>
-  <si>
-    <t>conductance</t>
-  </si>
-  <si>
-    <t>millisecond</t>
-  </si>
-  <si>
-    <t>millisiemenPerCentimeter</t>
-  </si>
-  <si>
-    <t>millisiemensPerCentimeter</t>
-  </si>
-  <si>
-    <t>millivolt</t>
-  </si>
-  <si>
-    <t>milliwatt</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>molality</t>
-  </si>
-  <si>
-    <t>molarity</t>
-  </si>
-  <si>
-    <t>mole</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>molePerMeterCubed</t>
-  </si>
-  <si>
-    <t>molePerGram</t>
-  </si>
-  <si>
-    <t>molePerKilogram</t>
-  </si>
-  <si>
-    <t>microMolesPerKilogram</t>
-  </si>
-  <si>
-    <t>microMolesPerLiter</t>
-  </si>
-  <si>
-    <t>microMolesPerMetersSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>CompositeUnits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>s4 A2 / m2 kg1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>microsiemensPerCentimeter</t>
-  </si>
-  <si>
-    <t>siemens</t>
-  </si>
-  <si>
-    <t>conductivity</t>
-  </si>
-  <si>
-    <t>mile</t>
-  </si>
-  <si>
-    <t>milePerHour</t>
-  </si>
-  <si>
-    <t>milePerMinute</t>
-  </si>
-  <si>
-    <t>milePerSecond</t>
-  </si>
-  <si>
-    <t>milesPerHour</t>
-  </si>
-  <si>
-    <t>milesPerMinute</t>
-  </si>
-  <si>
-    <t>milesPerSecond</t>
-  </si>
-  <si>
-    <t>mileSquared</t>
-  </si>
-  <si>
-    <t>millibar</t>
-  </si>
-  <si>
-    <t>milligram</t>
-  </si>
-  <si>
-    <t>milligramPerLiter</t>
-  </si>
-  <si>
-    <t>milligramPerMeterCubed</t>
-  </si>
-  <si>
-    <t>milligramPerMeterCubedPerDay</t>
-  </si>
-  <si>
-    <t>milligramPerMeterCubedPerHour</t>
-  </si>
-  <si>
-    <t>milligramPerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>milligramPerMeterSquaredPerYear</t>
-  </si>
-  <si>
-    <t>milligramPerMilliliter</t>
-  </si>
-  <si>
-    <t>milligramsPerCubicMeter</t>
-  </si>
-  <si>
-    <t>milligramsPerCubicMeterPerDay</t>
-  </si>
-  <si>
-    <t>milligramsPerCubicMeterPerHour</t>
-  </si>
-  <si>
-    <t>milligramsPerGramPerMole</t>
-  </si>
-  <si>
-    <t>milligramsPerLiter</t>
-  </si>
-  <si>
-    <t>milliGramsPerMilliLiter</t>
-  </si>
-  <si>
-    <t>meterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>meterSquaredPerKilogram</t>
-  </si>
-  <si>
-    <t>specificArea</t>
-  </si>
-  <si>
-    <t>meterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>volumePerVolume</t>
-  </si>
-  <si>
-    <t>centimeterPerSecond</t>
-  </si>
-  <si>
-    <t>metersPerSecond</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>centimeterPerYear</t>
-  </si>
-  <si>
-    <t>centimetersPerSecond</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>centimeterSquared</t>
-  </si>
-  <si>
-    <t>centisecond</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>coulomb</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>countPerLongline</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>cubicCentimetersPerCubicCentimeters</t>
-  </si>
-  <si>
-    <t>footCubedPerSecond</t>
-  </si>
-  <si>
-    <t>cubicFeetPerSecond</t>
-  </si>
-  <si>
-    <t>litersPerSecond</t>
-  </si>
-  <si>
-    <t>volumetricRate</t>
-  </si>
-  <si>
-    <t>inchCubed</t>
-  </si>
-  <si>
-    <t>cubicInch</t>
-  </si>
-  <si>
-    <t>cubicMeter</t>
-  </si>
-  <si>
-    <t>meterCubedPerKilogram</t>
-  </si>
-  <si>
-    <t>cubicMeterPerKilogram</t>
-  </si>
-  <si>
-    <t>microgramsPerLiter</t>
-  </si>
-  <si>
-    <t>microgramsPerLiterPerDay</t>
-  </si>
-  <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>micrometerSquared</t>
-  </si>
-  <si>
-    <t>micromolar</t>
-  </si>
-  <si>
-    <t>micromolePerCentimeterCubed</t>
-  </si>
-  <si>
-    <t>micromolePerKilogram</t>
-  </si>
-  <si>
-    <t>micromolePerLiter</t>
-  </si>
-  <si>
-    <t>micromolePerMeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>kilometerSquared</t>
-  </si>
-  <si>
-    <t>kilopascal</t>
-  </si>
-  <si>
-    <t>kilosecond</t>
-  </si>
-  <si>
-    <t>kilovolt</t>
-  </si>
-  <si>
-    <t>volt</t>
-  </si>
-  <si>
-    <t>potentialDifference</t>
-  </si>
-  <si>
-    <t>kilowatt</t>
-  </si>
-  <si>
-    <t>watt</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>kilowattPerMeterSquared</t>
-  </si>
-  <si>
-    <t>knots</t>
-  </si>
-  <si>
-    <t>knot</t>
-  </si>
-  <si>
-    <t>practicalSalinityUnits</t>
-  </si>
-  <si>
-    <t>QSU</t>
-  </si>
-  <si>
-    <t>QSUPerMilligramPerLiter</t>
-  </si>
-  <si>
-    <t>leafareaPerSquareMeter</t>
-  </si>
-  <si>
-    <t>leafnumberPerShortShoot</t>
-  </si>
-  <si>
-    <t>Link_Clarke</t>
-  </si>
-  <si>
-    <t>literPerHectare</t>
-  </si>
-  <si>
-    <t>literPerMeterSquared</t>
-  </si>
-  <si>
-    <t>literPerSecond</t>
-  </si>
-  <si>
-    <t>litersPerHectare</t>
-  </si>
-  <si>
-    <t>lumen</t>
-  </si>
-  <si>
-    <t>lux</t>
-  </si>
-  <si>
-    <t>megagram</t>
-  </si>
-  <si>
-    <t>megahertz</t>
-  </si>
-  <si>
-    <t>megajoule</t>
-  </si>
-  <si>
-    <t>megaJoulePerMeterSquared</t>
-  </si>
-  <si>
-    <t>irradiation</t>
-  </si>
-  <si>
-    <t>megajoulePerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>arealEnergyDensityRate</t>
-  </si>
-  <si>
-    <t>megameter</t>
-  </si>
-  <si>
-    <t>megapascal</t>
-  </si>
-  <si>
-    <t>megasecond</t>
-  </si>
-  <si>
-    <t>megavolt</t>
-  </si>
-  <si>
-    <t>megawatt</t>
-  </si>
-  <si>
-    <t>meterPerDay</t>
-  </si>
-  <si>
-    <t>meterPerGram</t>
-  </si>
-  <si>
-    <t>massSpecificLength</t>
-  </si>
-  <si>
-    <t>meterPerMinute</t>
-  </si>
-  <si>
-    <t>meterPerSecond</t>
-  </si>
-  <si>
-    <t>meterPerSecondSquared</t>
-  </si>
-  <si>
-    <t>acceleration</t>
-  </si>
-  <si>
-    <t>metersPerDay</t>
-  </si>
-  <si>
-    <t>metersPerGram</t>
-  </si>
-  <si>
-    <t>metersPerMinute</t>
-  </si>
-  <si>
-    <t>metersPerSecondSquared</t>
-  </si>
-  <si>
-    <t>meterSquared</t>
-  </si>
-  <si>
-    <t>gramPerThousandMeterCubed</t>
-  </si>
-  <si>
-    <t>gramPerYear</t>
-  </si>
-  <si>
-    <t>kilogramsPerSecond</t>
-  </si>
-  <si>
-    <t>massFlux</t>
-  </si>
-  <si>
-    <t>gramsPerCentimeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>gramsPerCubicCentimeter</t>
-  </si>
-  <si>
-    <t>gramsPerCubicMeter</t>
-  </si>
-  <si>
-    <t>gramsPerGram</t>
-  </si>
-  <si>
-    <t>gramsPerHectarePerDay</t>
-  </si>
-  <si>
-    <t>deprecatedToName</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>parentSIId</t>
-  </si>
-  <si>
-    <t>parentSIName</t>
-  </si>
-  <si>
-    <t>quantityId</t>
-  </si>
-  <si>
-    <t>quantityName</t>
-  </si>
-  <si>
-    <t>siConstant</t>
-  </si>
-  <si>
-    <t>siMultiplier</t>
-  </si>
-  <si>
-    <t>uniqueId</t>
-  </si>
-  <si>
-    <t>0.2WattPerMeterSquaredPerMilliVolt</t>
-  </si>
-  <si>
-    <t>acre</t>
-  </si>
-  <si>
-    <t>squareMeter</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>ampere</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>amperePerMeter</t>
-  </si>
-  <si>
-    <t>magneticFieldStrength</t>
-  </si>
-  <si>
-    <t>amperePerMeterSquared</t>
-  </si>
-  <si>
-    <t>currentDensity</t>
-  </si>
-  <si>
-    <t>amperePerSquareMeter</t>
-  </si>
-  <si>
-    <t>angstrom</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>atmosphere</t>
-  </si>
-  <si>
-    <t>pascal</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>becquerel</t>
-  </si>
-  <si>
-    <t>radionucleotideActivity</t>
-  </si>
-  <si>
-    <t>kilogramPerMeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>kilogramPerMeterSquaredPerYear</t>
-  </si>
-  <si>
-    <t>kilogramPerSecond</t>
-  </si>
-  <si>
-    <t>kilogramPerYear</t>
-  </si>
-  <si>
-    <t>amountOfSubstanceWeightFlux</t>
-  </si>
-  <si>
-    <t>kilogramsPerCubicMeter</t>
-  </si>
-  <si>
-    <t>kilogramsPerHectarePerYear</t>
-  </si>
-  <si>
-    <t>kilogramsPerMeterSquaredPerYear</t>
-  </si>
-  <si>
-    <t>kilohertz</t>
-  </si>
-  <si>
-    <t>kiloliter</t>
-  </si>
-  <si>
-    <t>kilometer</t>
-  </si>
-  <si>
-    <t>kilometerPerHour</t>
-  </si>
-  <si>
-    <t>kilometersPerHour</t>
-  </si>
-  <si>
-    <t>fahrenheitDegree</t>
-  </si>
-  <si>
-    <t>fahrenheit</t>
-  </si>
-  <si>
-    <t>farad</t>
-  </si>
-  <si>
-    <t>capacitance</t>
-  </si>
-  <si>
-    <t>fathom</t>
-  </si>
-  <si>
-    <t>microMolesPerMole</t>
-  </si>
-  <si>
-    <t>micron</t>
-  </si>
-  <si>
-    <t>microsecond</t>
-  </si>
-  <si>
-    <t>britishThermalUnit</t>
-  </si>
-  <si>
-    <t>joule</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>bushel</t>
-  </si>
-  <si>
-    <t>liter</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>bushelPerAcre</t>
-  </si>
-  <si>
-    <t>litersPerSquareMeter</t>
-  </si>
-  <si>
-    <t>volumetricArea</t>
-  </si>
-  <si>
-    <t>bushelsPerAcre</t>
-  </si>
-  <si>
-    <t>calorie</t>
-  </si>
-  <si>
-    <t>candela</t>
-  </si>
-  <si>
-    <t>luminosity</t>
-  </si>
-  <si>
-    <t>candelaPerMeterSquared</t>
-  </si>
-  <si>
-    <t>luminance</t>
-  </si>
-  <si>
-    <t>candelaPerSquareMeter</t>
-  </si>
-  <si>
-    <t>catchPerUnitEffort</t>
-  </si>
-  <si>
-    <t>celsius</t>
-  </si>
-  <si>
-    <t>kelvin</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>centigram</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>centimeter</t>
-  </si>
-  <si>
-    <t>waveNumber</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>reciprocalMeter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>footPerDay</t>
-  </si>
-  <si>
-    <t>feetPerDay</t>
-  </si>
-  <si>
-    <t>footPerHour</t>
-  </si>
-  <si>
-    <t>feetPerHour</t>
-  </si>
-  <si>
-    <t>footPerSecond</t>
-  </si>
-  <si>
-    <t>feetPerSecond</t>
-  </si>
-  <si>
-    <t>footSquaredPerDay</t>
-  </si>
-  <si>
-    <t>feetSquaredPerDay</t>
-  </si>
-  <si>
-    <t>metersSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>transmissivity</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>footGoldCoast</t>
-  </si>
-  <si>
-    <t>footPound</t>
-  </si>
-  <si>
-    <t>footSquared</t>
-  </si>
-  <si>
-    <t>Foot_Gold_Coast</t>
-  </si>
-  <si>
-    <t>Foot_US</t>
-  </si>
-  <si>
-    <t>gallon</t>
-  </si>
-  <si>
-    <t>grad</t>
-  </si>
-  <si>
-    <t>gram</t>
-  </si>
-  <si>
-    <t>gramPerCentimeterCubed</t>
-  </si>
-  <si>
-    <t>kilogramPerCubicMeter</t>
-  </si>
-  <si>
-    <t>massDensity</t>
-  </si>
-  <si>
-    <t>gramPerCentimeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>kilogramsPerMeterSquaredPerSecond</t>
-  </si>
-  <si>
-    <t>arealMassDensityRate</t>
-  </si>
-  <si>
-    <t>gramPerGram</t>
-  </si>
-  <si>
-    <t>massPerMass</t>
-  </si>
-  <si>
-    <t>gramPerHectarePerDay</t>
-  </si>
-  <si>
-    <t>gramPerLiter</t>
-  </si>
-  <si>
-    <t>gramPerLiterPerDay</t>
-  </si>
-  <si>
-    <t>volumetricMassDensityRate</t>
-  </si>
-  <si>
-    <t>gramPerMeterCubed</t>
-  </si>
-  <si>
-    <t>kilogramPerMeterCubed</t>
-  </si>
-  <si>
-    <t>gramPerMeterSquaredPerYear</t>
-  </si>
-  <si>
-    <t>gramPerMilliliter</t>
-  </si>
-  <si>
-    <t>centimeterCubed</t>
-  </si>
-  <si>
-    <t>meterCubed</t>
-  </si>
-  <si>
-    <t>centimeterCubedPerCentimeterCubed</t>
-  </si>
-  <si>
-    <t>✔✔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔✔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificVolume</t>
-  </si>
-  <si>
-    <t>meterCubedPerSecond</t>
-  </si>
-  <si>
-    <t>cubicMetersPerSecond</t>
-  </si>
-  <si>
-    <t>micrometerCubedPerGram</t>
-  </si>
-  <si>
-    <t>cubicMicrometersPerGram</t>
-  </si>
-  <si>
-    <t>DecaysPerMinutePerGram</t>
-  </si>
-  <si>
-    <t>amountOfDecaysWeightFlux</t>
-  </si>
-  <si>
-    <t>decibar</t>
-  </si>
-  <si>
-    <t>decigram</t>
-  </si>
-  <si>
-    <t>decimeter</t>
-  </si>
-  <si>
-    <t>decisecond</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>radian</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>dekagram</t>
-  </si>
-  <si>
-    <t>dekameter</t>
-  </si>
-  <si>
-    <t>dekasecond</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>einsteinPerMeterSquaredPerDay</t>
-  </si>
-  <si>
-    <t>illuminance</t>
-  </si>
-  <si>
-    <t>einsteinsPerSquareMeterPerDay</t>
-  </si>
-  <si>
-    <t>deprecatedToId</t>
-  </si>
-  <si>
-    <t>leafareaPerShortShoot</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1650,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,37 +2001,37 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -2035,16 +2039,16 @@
         <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -2055,22 +2059,22 @@
         <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1">
         <v>1.1574000000000001E-12</v>
@@ -2084,22 +2088,22 @@
         <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>317</v>
@@ -2113,22 +2117,22 @@
         <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -2142,22 +2146,22 @@
         <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>3.1700000000000001E-4</v>
@@ -2171,22 +2175,22 @@
         <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1">
         <v>3.17098E-11</v>
@@ -2200,22 +2204,22 @@
         <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>460</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1">
         <v>86400000000</v>
@@ -2229,22 +2233,22 @@
         <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1">
         <v>3.1557600000000002E-13</v>
@@ -2255,19 +2259,19 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -2278,19 +2282,19 @@
     </row>
     <row r="11" spans="2:12">
       <c r="D11" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>86.4</v>
@@ -2301,19 +2305,19 @@
     </row>
     <row r="12" spans="2:12">
       <c r="D12" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <v>3.1700000000000001E-4</v>
@@ -2324,19 +2328,19 @@
     </row>
     <row r="13" spans="2:12">
       <c r="D13" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K13">
         <v>286</v>
@@ -2344,13 +2348,13 @@
     </row>
     <row r="14" spans="2:12">
       <c r="D14" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="G14">
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>361</v>
@@ -2358,13 +2362,13 @@
     </row>
     <row r="15" spans="2:12">
       <c r="D15" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="G15">
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K15">
         <v>381</v>
@@ -2372,13 +2376,13 @@
     </row>
     <row r="16" spans="2:12">
       <c r="D16" t="s">
-        <v>60</v>
+        <v>478</v>
       </c>
       <c r="G16">
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K16">
         <v>362</v>
@@ -2386,13 +2390,13 @@
     </row>
     <row r="17" spans="2:12">
       <c r="D17" t="s">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="G17">
         <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="K17">
         <v>363</v>
@@ -2400,19 +2404,19 @@
     </row>
     <row r="18" spans="2:12">
       <c r="D18" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="E18">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1">
         <v>6.0000000000000002E-6</v>
@@ -2423,36 +2427,36 @@
     </row>
     <row r="19" spans="2:12">
       <c r="D19" t="s">
-        <v>393</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>394</v>
+        <v>111</v>
       </c>
       <c r="K19">
         <v>95</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="D20" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="K20">
         <v>103</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -2460,22 +2464,22 @@
         <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="G21">
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="K21">
         <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -2483,16 +2487,16 @@
         <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="K22">
         <v>320</v>
@@ -2503,22 +2507,22 @@
         <v>309</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="G23">
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2529,19 +2533,19 @@
     </row>
     <row r="24" spans="2:12">
       <c r="D24" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="E24">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="G24">
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="K24">
         <v>280</v>
@@ -2549,19 +2553,19 @@
     </row>
     <row r="25" spans="2:12">
       <c r="D25" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="E25">
         <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="G25">
         <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="J25">
         <v>1E-4</v>
@@ -2572,13 +2576,13 @@
     </row>
     <row r="26" spans="2:12">
       <c r="D26" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="K26">
         <v>369</v>
@@ -2589,16 +2593,16 @@
         <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <v>123</v>
@@ -2606,13 +2610,13 @@
     </row>
     <row r="28" spans="2:12">
       <c r="D28" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>119</v>
@@ -2620,13 +2624,13 @@
     </row>
     <row r="29" spans="2:12">
       <c r="D29" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G29">
         <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>364</v>
@@ -2634,36 +2638,36 @@
     </row>
     <row r="30" spans="2:12">
       <c r="D30" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="G30">
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>355</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="D31" t="s">
-        <v>399</v>
+        <v>116</v>
       </c>
       <c r="E31">
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="G31">
         <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="J31">
         <v>1055.06</v>
@@ -2674,19 +2678,19 @@
     </row>
     <row r="32" spans="2:12">
       <c r="D32" t="s">
-        <v>409</v>
+        <v>126</v>
       </c>
       <c r="E32">
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="G32">
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="J32">
         <v>4.1867999999999999</v>
@@ -2697,19 +2701,19 @@
     </row>
     <row r="33" spans="2:12">
       <c r="D33" t="s">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="G33">
         <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="J33">
         <v>1.35582</v>
@@ -2720,30 +2724,30 @@
     </row>
     <row r="34" spans="2:12">
       <c r="D34" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="G34">
         <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="K34">
         <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="D35" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="G35">
         <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="K35">
         <v>358</v>
@@ -2751,19 +2755,19 @@
     </row>
     <row r="36" spans="2:12">
       <c r="D36" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="E36">
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="G36">
         <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>1000</v>
@@ -2774,13 +2778,13 @@
     </row>
     <row r="37" spans="2:12">
       <c r="D37" t="s">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="G37">
         <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>343</v>
@@ -2788,19 +2792,19 @@
     </row>
     <row r="38" spans="2:12">
       <c r="D38" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="G38">
         <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="K38">
         <v>106</v>
       </c>
       <c r="L38" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="2:12">
@@ -2808,16 +2812,16 @@
         <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>485</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>290</v>
@@ -2828,16 +2832,16 @@
         <v>313</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>305</v>
@@ -2845,47 +2849,47 @@
     </row>
     <row r="41" spans="2:12">
       <c r="D41" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>110</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="D42" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="G42">
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="K42">
         <v>29</v>
       </c>
       <c r="L42" t="s">
-        <v>75</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="D43" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="G43">
         <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
       <c r="K43">
         <v>306</v>
@@ -2893,13 +2897,13 @@
     </row>
     <row r="44" spans="2:12">
       <c r="D44" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="G44">
         <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="K44">
         <v>349</v>
@@ -2910,16 +2914,16 @@
         <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>412</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>414</v>
+        <v>131</v>
       </c>
       <c r="G45">
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>88</v>
@@ -2927,13 +2931,13 @@
     </row>
     <row r="46" spans="2:12">
       <c r="D46" t="s">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="K46">
         <v>22</v>
@@ -2941,30 +2945,30 @@
     </row>
     <row r="47" spans="2:12">
       <c r="D47" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="G47">
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="K47">
         <v>49</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="D48" t="s">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="G48">
         <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -2975,16 +2979,16 @@
         <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K49">
         <v>19</v>
@@ -2995,16 +2999,16 @@
         <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="G50">
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K50">
         <v>312</v>
@@ -3015,22 +3019,22 @@
         <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="E51">
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1">
         <v>9.9999999999999995E-7</v>
@@ -3044,22 +3048,22 @@
         <v>263</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J52">
         <v>1000</v>
@@ -3073,22 +3077,22 @@
         <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="E53">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3102,22 +3106,22 @@
         <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="E54">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3131,22 +3135,22 @@
         <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="E55">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G55">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J55">
         <v>1E-3</v>
@@ -3160,22 +3164,22 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="E56">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J56" s="1">
         <v>9.9999999999999995E-7</v>
@@ -3189,22 +3193,22 @@
         <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="E57">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="J57">
         <v>1000</v>
@@ -3218,16 +3222,16 @@
         <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="G58">
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K58">
         <v>329</v>
@@ -3238,16 +3242,16 @@
         <v>311</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="G59">
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K59">
         <v>295</v>
@@ -3258,16 +3262,16 @@
         <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>482</v>
       </c>
       <c r="D60" t="s">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="G60">
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K60">
         <v>303</v>
@@ -3275,19 +3279,19 @@
     </row>
     <row r="61" spans="2:11">
       <c r="D61" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="E61">
         <v>189</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>61</v>
       </c>
       <c r="G61">
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K61">
         <v>342</v>
@@ -3295,13 +3299,13 @@
     </row>
     <row r="62" spans="2:11">
       <c r="D62" t="s">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="G62">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K62">
         <v>281</v>
@@ -3312,16 +3316,16 @@
         <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G63">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="K63">
         <v>56</v>
@@ -3332,22 +3336,22 @@
         <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="E64">
         <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G64">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="J64" s="1">
         <v>3.1699999999999998E-11</v>
@@ -3361,22 +3365,22 @@
         <v>254</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="E65">
         <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G65">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="J65" s="1">
         <v>3.1699999999999998E-5</v>
@@ -3387,19 +3391,19 @@
     </row>
     <row r="66" spans="2:12">
       <c r="D66" t="s">
-        <v>66</v>
+        <v>484</v>
       </c>
       <c r="E66">
         <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G66">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="J66" s="1">
         <v>1.1574000000000001E-11</v>
@@ -3410,19 +3414,19 @@
     </row>
     <row r="67" spans="2:12">
       <c r="D67" t="s">
-        <v>104</v>
+        <v>370</v>
       </c>
       <c r="E67">
         <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="G67">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="J67" s="1">
         <v>3.1699999999999998E-5</v>
@@ -3436,16 +3440,16 @@
         <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="G68">
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="K68">
         <v>94</v>
@@ -3456,22 +3460,22 @@
         <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="E69">
         <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="G69">
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="J69" s="1">
         <v>9.9999999999999995E-7</v>
@@ -3482,19 +3486,19 @@
     </row>
     <row r="70" spans="2:12">
       <c r="D70" t="s">
-        <v>67</v>
+        <v>485</v>
       </c>
       <c r="E70">
         <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="G70">
         <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="J70">
         <v>0.01</v>
@@ -3505,19 +3509,19 @@
     </row>
     <row r="71" spans="2:12">
       <c r="D71" t="s">
-        <v>68</v>
+        <v>486</v>
       </c>
       <c r="E71">
         <v>150</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="G71">
         <v>9</v>
       </c>
       <c r="H71" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="J71">
         <v>1E-3</v>
@@ -3528,19 +3532,19 @@
     </row>
     <row r="72" spans="2:12">
       <c r="D72" t="s">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="E72">
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="G72">
         <v>9</v>
       </c>
       <c r="H72" t="s">
-        <v>451</v>
+        <v>15</v>
       </c>
       <c r="J72">
         <v>1E-3</v>
@@ -3551,13 +3555,13 @@
     </row>
     <row r="73" spans="2:12">
       <c r="D73" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="G73">
         <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
       <c r="K73">
         <v>352</v>
@@ -3565,13 +3569,13 @@
     </row>
     <row r="74" spans="2:12">
       <c r="D74" t="s">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="G74">
         <v>59</v>
       </c>
       <c r="H74" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
       <c r="K74">
         <v>351</v>
@@ -3579,13 +3583,13 @@
     </row>
     <row r="75" spans="2:12">
       <c r="D75" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="G75">
         <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="K75">
         <v>111</v>
@@ -3596,16 +3600,16 @@
         <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="G76">
         <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="K76">
         <v>39</v>
@@ -3613,19 +3617,19 @@
     </row>
     <row r="77" spans="2:12">
       <c r="D77" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="E77">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="J77">
         <v>1000</v>
@@ -3636,19 +3640,19 @@
     </row>
     <row r="78" spans="2:12">
       <c r="D78" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="E78">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="J78" s="1">
         <v>1000000</v>
@@ -3659,19 +3663,19 @@
     </row>
     <row r="79" spans="2:12">
       <c r="D79" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="E79">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G79">
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="J79">
         <v>1E-3</v>
@@ -3682,19 +3686,19 @@
     </row>
     <row r="80" spans="2:12">
       <c r="D80" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="K80">
         <v>11</v>
       </c>
       <c r="L80" t="s">
-        <v>78</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -3702,16 +3706,16 @@
         <v>306</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="G81">
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="K81">
         <v>321</v>
@@ -3719,19 +3723,19 @@
     </row>
     <row r="82" spans="2:12">
       <c r="D82" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="G82">
         <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="J82">
         <v>1000</v>
@@ -3742,19 +3746,19 @@
     </row>
     <row r="83" spans="2:12">
       <c r="D83" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="E83">
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="G83">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="J83" s="1">
         <v>1000000</v>
@@ -3765,19 +3769,19 @@
     </row>
     <row r="84" spans="2:12">
       <c r="D84" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="G84">
         <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="J84">
         <v>1E-3</v>
@@ -3788,30 +3792,30 @@
     </row>
     <row r="85" spans="2:12">
       <c r="D85" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="G85">
         <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="L85" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="2:12">
       <c r="D86" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="G86">
         <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="K86">
         <v>277</v>
@@ -3819,19 +3823,19 @@
     </row>
     <row r="87" spans="2:12">
       <c r="D87" t="s">
-        <v>372</v>
+        <v>89</v>
       </c>
       <c r="E87">
         <v>104</v>
       </c>
       <c r="F87" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J87">
         <v>101325</v>
@@ -3842,19 +3846,19 @@
     </row>
     <row r="88" spans="2:12">
       <c r="D88" t="s">
-        <v>375</v>
+        <v>92</v>
       </c>
       <c r="E88">
         <v>104</v>
       </c>
       <c r="F88" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J88">
         <v>100000</v>
@@ -3865,19 +3869,19 @@
     </row>
     <row r="89" spans="2:12">
       <c r="D89" t="s">
-        <v>472</v>
+        <v>36</v>
       </c>
       <c r="E89">
         <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J89">
         <v>10000</v>
@@ -3888,19 +3892,19 @@
     </row>
     <row r="90" spans="2:12">
       <c r="D90" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="E90">
         <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J90">
         <v>10</v>
@@ -3911,19 +3915,19 @@
     </row>
     <row r="91" spans="2:12">
       <c r="D91" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="E91">
         <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J91">
         <v>1000</v>
@@ -3934,19 +3938,19 @@
     </row>
     <row r="92" spans="2:12">
       <c r="D92" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="E92">
         <v>104</v>
       </c>
       <c r="F92" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G92">
         <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>1000000</v>
@@ -3957,19 +3961,19 @@
     </row>
     <row r="93" spans="2:12">
       <c r="D93" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="E93">
         <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>101325000000</v>
@@ -3980,19 +3984,19 @@
     </row>
     <row r="94" spans="2:12">
       <c r="D94" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="E94">
         <v>104</v>
       </c>
       <c r="F94" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="J94">
         <v>100</v>
@@ -4003,30 +4007,30 @@
     </row>
     <row r="95" spans="2:12">
       <c r="D95" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="K95">
         <v>104</v>
       </c>
       <c r="L95" t="s">
-        <v>80</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="2:12">
       <c r="D96" t="s">
-        <v>21</v>
+        <v>439</v>
       </c>
       <c r="G96">
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="K96">
         <v>389</v>
@@ -4034,13 +4038,13 @@
     </row>
     <row r="97" spans="2:12">
       <c r="D97" t="s">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="G97">
         <v>62</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="K97">
         <v>368</v>
@@ -4048,13 +4052,13 @@
     </row>
     <row r="98" spans="2:12">
       <c r="D98" t="s">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="G98">
         <v>62</v>
       </c>
       <c r="H98" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="K98">
         <v>394</v>
@@ -4062,13 +4066,13 @@
     </row>
     <row r="99" spans="2:12">
       <c r="D99" t="s">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="G99">
         <v>62</v>
       </c>
       <c r="H99" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="K99">
         <v>395</v>
@@ -4076,30 +4080,30 @@
     </row>
     <row r="100" spans="2:12">
       <c r="D100" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="G100">
         <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="K100">
         <v>48</v>
       </c>
       <c r="L100" t="s">
-        <v>82</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="2:12">
       <c r="D101" t="s">
-        <v>14</v>
+        <v>432</v>
       </c>
       <c r="G101">
         <v>35</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4110,16 +4114,16 @@
         <v>224</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>360</v>
       </c>
       <c r="G102">
         <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="K102">
         <v>73</v>
@@ -4127,19 +4131,19 @@
     </row>
     <row r="103" spans="2:12">
       <c r="D103" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="G103">
         <v>22</v>
       </c>
       <c r="H103" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="K103">
         <v>6</v>
       </c>
       <c r="L103" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="2:12">
@@ -4147,16 +4151,16 @@
         <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="G104">
         <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="K104">
         <v>24</v>
@@ -4167,22 +4171,22 @@
         <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>468</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>469</v>
+        <v>33</v>
       </c>
       <c r="E105">
         <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="G105">
         <v>34</v>
       </c>
       <c r="H105" t="s">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="J105" s="1">
         <v>1.0000000000000001E-15</v>
@@ -4196,16 +4200,16 @@
         <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>462</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G106">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="K106">
         <v>27</v>
@@ -4216,16 +4220,16 @@
         <v>292</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>468</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="G107">
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="K107">
         <v>331</v>
@@ -4236,16 +4240,16 @@
         <v>293</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>464</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>465</v>
       </c>
       <c r="G108">
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="K108">
         <v>330</v>
@@ -4253,13 +4257,13 @@
     </row>
     <row r="109" spans="2:12">
       <c r="D109" t="s">
-        <v>48</v>
+        <v>466</v>
       </c>
       <c r="G109">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="K109">
         <v>276</v>
@@ -4270,16 +4274,16 @@
         <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="D110" t="s">
-        <v>406</v>
+        <v>123</v>
       </c>
       <c r="G110">
         <v>44</v>
       </c>
       <c r="H110" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="K110">
         <v>40</v>
@@ -4290,22 +4294,22 @@
         <v>227</v>
       </c>
       <c r="C111" t="s">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="D111" t="s">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="E111">
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>406</v>
+        <v>123</v>
       </c>
       <c r="G111">
         <v>44</v>
       </c>
       <c r="H111" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="J111">
         <v>8.6999999999999994E-3</v>
@@ -4319,22 +4323,22 @@
         <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="E112">
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>406</v>
+        <v>123</v>
       </c>
       <c r="G112">
         <v>44</v>
       </c>
       <c r="H112" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="J112">
         <v>1E-4</v>
@@ -4345,19 +4349,19 @@
     </row>
     <row r="113" spans="4:11">
       <c r="D113" t="s">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>406</v>
+        <v>123</v>
       </c>
       <c r="G113">
         <v>44</v>
       </c>
       <c r="H113" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="J113">
         <v>8.6999999999999994E-3</v>
@@ -4368,19 +4372,19 @@
     </row>
     <row r="114" spans="4:11">
       <c r="D114" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="E114">
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>406</v>
+        <v>123</v>
       </c>
       <c r="G114">
         <v>44</v>
       </c>
       <c r="H114" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="J114">
         <v>1E-4</v>
@@ -4391,19 +4395,19 @@
     </row>
     <row r="115" spans="4:11">
       <c r="D115" t="s">
-        <v>49</v>
+        <v>467</v>
       </c>
       <c r="E115">
         <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="G115">
         <v>44</v>
       </c>
       <c r="H115" t="s">
-        <v>407</v>
+        <v>124</v>
       </c>
       <c r="J115">
         <v>1E-3</v>
@@ -4414,19 +4418,19 @@
     </row>
     <row r="116" spans="4:11">
       <c r="D116" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="E116">
         <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="G116">
         <v>52</v>
       </c>
       <c r="H116" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="J116">
         <v>1E-3</v>
@@ -4437,13 +4441,13 @@
     </row>
     <row r="117" spans="4:11">
       <c r="D117" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="G117">
         <v>52</v>
       </c>
       <c r="H117" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="K117">
         <v>34</v>
@@ -4451,19 +4455,19 @@
     </row>
     <row r="118" spans="4:11">
       <c r="D118" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="E118">
         <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="G118">
         <v>52</v>
       </c>
       <c r="H118" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="J118" s="1">
         <v>1000000</v>
@@ -4474,19 +4478,19 @@
     </row>
     <row r="119" spans="4:11">
       <c r="D119" t="s">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="E119">
         <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="G119">
         <v>52</v>
       </c>
       <c r="H119" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="J119" s="1">
         <v>9.9999999999999995E-7</v>
@@ -4497,13 +4501,13 @@
     </row>
     <row r="120" spans="4:11">
       <c r="D120" t="s">
-        <v>10</v>
+        <v>428</v>
       </c>
       <c r="G120">
         <v>52</v>
       </c>
       <c r="H120" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="K120">
         <v>301</v>
@@ -4511,26 +4515,24 @@
     </row>
     <row r="121" spans="4:11">
       <c r="D121" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="G121">
         <v>52</v>
       </c>
       <c r="H121" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="K121">
         <v>385</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B2:K399">
     <sortCondition ref="H3:H399"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4565,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>136</v>
+        <v>402</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4580,50 +4582,50 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>34</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -4631,7 +4633,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -4641,22 +4643,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J4" s="1">
         <v>1E-10</v>
@@ -4667,12 +4669,12 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4680,7 +4682,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4690,22 +4692,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>134</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>273.18</v>
@@ -4719,22 +4721,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G7">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4745,22 +4747,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>0.01</v>
@@ -4771,22 +4773,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G9">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J9">
         <v>0.01</v>
@@ -4797,22 +4799,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>1E-4</v>
@@ -4823,22 +4825,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -4849,22 +4851,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G12">
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -4875,22 +4877,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.7453300000000001E-2</v>
@@ -4901,22 +4903,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J14">
         <v>0.01</v>
@@ -4927,22 +4929,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -4953,22 +4955,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>481</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G16">
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -4979,28 +4981,28 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>417</v>
+        <v>134</v>
       </c>
       <c r="G17">
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="I17">
         <v>255.40199999999999</v>
@@ -5014,22 +5016,22 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G18">
         <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>1.8288</v>
@@ -5040,28 +5042,28 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J19">
         <v>0.30480000000000002</v>
@@ -5072,28 +5074,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>0.30480000000000002</v>
@@ -5104,22 +5106,22 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>442</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.5706999999999999E-2</v>
@@ -5130,22 +5132,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G22">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J22">
         <v>1E-3</v>
@@ -5156,22 +5158,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="E23">
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G23">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -5182,22 +5184,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="E24">
         <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -5208,22 +5210,22 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="E25">
         <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G25">
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -5234,22 +5236,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="E26">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G26">
         <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J26">
         <v>3600</v>
@@ -5260,22 +5262,22 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="E27">
         <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G27">
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J27">
         <v>2.5399999999999999E-2</v>
@@ -5286,12 +5288,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>417</v>
+        <v>134</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5299,7 +5301,7 @@
         <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -5309,12 +5311,12 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -5322,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -5332,22 +5334,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c r="E30">
         <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G30">
         <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J30">
         <v>1000</v>
@@ -5358,22 +5360,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="E31">
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G31">
         <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J31">
         <v>1000</v>
@@ -5384,22 +5386,22 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="E32">
         <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J32">
         <v>0.20116600000000001</v>
@@ -5410,16 +5412,16 @@
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="G33" s="3">
         <v>43</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="K33" s="3">
         <v>114</v>
@@ -5427,22 +5429,22 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="E34">
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G34">
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J34">
         <v>1000</v>
@@ -5453,22 +5455,22 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="E35">
         <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G35">
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J35" s="1">
         <v>1000000</v>
@@ -5479,22 +5481,22 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G36">
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J36" s="1">
         <v>1000000</v>
@@ -5505,12 +5507,12 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5518,7 +5520,7 @@
         <v>48</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5528,22 +5530,22 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="E38">
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G38">
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J38" s="1">
         <v>1.0000000000000001E-9</v>
@@ -5554,22 +5556,22 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="E39">
         <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G39">
         <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J39" s="1">
         <v>9.9999999999999995E-7</v>
@@ -5580,22 +5582,22 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="E40">
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G40">
         <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J40" s="1">
         <v>9.9999999999999995E-7</v>
@@ -5606,22 +5608,22 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G41">
         <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J41" s="1">
         <v>9.9999999999999995E-7</v>
@@ -5632,22 +5634,22 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="E42">
         <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G42">
         <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J42">
         <v>1609.34</v>
@@ -5658,22 +5660,22 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="E43">
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G43">
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J43" s="1">
         <v>9.9999999999999995E-7</v>
@@ -5684,22 +5686,22 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="E44">
         <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G44">
         <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J44">
         <v>1E-3</v>
@@ -5710,22 +5712,22 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="E45">
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G45">
         <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J45">
         <v>1E-3</v>
@@ -5736,22 +5738,22 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="E46">
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G46">
         <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J46">
         <v>60</v>
@@ -5762,12 +5764,12 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5775,7 +5777,7 @@
         <v>49</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -5785,22 +5787,22 @@
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>415</v>
       </c>
       <c r="E48">
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G48">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J48" s="1">
         <v>9.9999999999999998E-13</v>
@@ -5811,22 +5813,22 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="E49">
         <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G49">
         <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J49" s="1">
         <v>1.0000000000000001E-9</v>
@@ -5837,22 +5839,22 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="E50">
         <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G50">
         <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J50" s="1">
         <v>1.0000000000000001E-9</v>
@@ -5863,22 +5865,22 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="E51">
         <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G51">
         <v>48</v>
       </c>
       <c r="H51" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J51">
         <v>1852</v>
@@ -5889,22 +5891,22 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="E52">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G52">
         <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J52">
         <v>86400</v>
@@ -5915,22 +5917,22 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G53">
         <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J53">
         <v>3600</v>
@@ -5941,22 +5943,22 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="E54">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G54">
         <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J54" s="1">
         <v>31622400</v>
@@ -5967,22 +5969,22 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="E55">
         <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G55">
         <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>60</v>
@@ -5993,22 +5995,22 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="E56">
         <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G56">
         <v>31</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J56">
         <v>604800</v>
@@ -6019,22 +6021,22 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="E57">
         <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G57">
         <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="J57" s="1">
         <v>31536000</v>
@@ -6045,42 +6047,42 @@
     </row>
     <row r="58" spans="1:12" s="3" customFormat="1">
       <c r="A58" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="G58" s="3">
         <v>45</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>31</v>
+        <v>449</v>
       </c>
       <c r="K58" s="3">
         <v>61</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>444</v>
       </c>
       <c r="E59">
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G59">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J59">
         <v>0.4536</v>
@@ -6091,12 +6093,12 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6104,7 +6106,7 @@
         <v>46</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -6114,12 +6116,12 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="10" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6127,7 +6129,7 @@
         <v>31</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -6137,22 +6139,22 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>368</v>
       </c>
       <c r="E62">
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G62">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J62">
         <v>907.2</v>
@@ -6163,22 +6165,22 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>369</v>
       </c>
       <c r="E63">
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="G63">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>421</v>
+        <v>138</v>
       </c>
       <c r="J63">
         <v>1000</v>
@@ -6189,22 +6191,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="13" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="E64">
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G64">
         <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J64">
         <v>0.91439899999999996</v>
@@ -6215,28 +6217,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="13" t="s">
-        <v>464</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="E65">
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="G65">
         <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="J65">
         <v>0.91439800000000004</v>
@@ -6246,7 +6248,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A3:L74">
     <sortCondition ref="D4:D74"/>
   </sortState>
@@ -6265,8 +6266,8 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6286,7 +6287,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>447</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6302,66 +6303,66 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>34</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
+      <c r="A3" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B3">
         <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J3">
         <v>1E-4</v>
@@ -6371,26 +6372,29 @@
       </c>
     </row>
     <row r="4" spans="1:12">
+      <c r="A4" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B4">
         <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J4">
         <v>9.2902999999999999E-2</v>
@@ -6400,26 +6404,29 @@
       </c>
     </row>
     <row r="5" spans="1:12">
+      <c r="A5" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B5">
         <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1">
         <v>2590000</v>
@@ -6429,26 +6436,29 @@
       </c>
     </row>
     <row r="6" spans="1:12">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B6">
         <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1">
         <v>1000000</v>
@@ -6458,26 +6468,29 @@
       </c>
     </row>
     <row r="7" spans="1:12">
+      <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B7">
         <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>474</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -6487,26 +6500,29 @@
       </c>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B8">
         <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>365</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>0.83613099999999996</v>
@@ -6516,26 +6532,29 @@
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B9">
         <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1">
         <v>1000000</v>
@@ -6546,12 +6565,12 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>338</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -6559,7 +6578,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6568,20 +6587,23 @@
       </c>
     </row>
     <row r="11" spans="1:12">
+      <c r="A11" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1">
         <v>2590000</v>
@@ -6595,7 +6617,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6603,7 +6625,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6616,7 +6638,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>376</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6624,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -6632,21 +6654,21 @@
         <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="10" t="s">
-        <v>7</v>
+        <v>425</v>
       </c>
       <c r="B14" s="3">
         <v>204</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>461</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6654,7 +6676,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -6663,26 +6685,29 @@
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="B15">
         <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="E15">
         <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G15">
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J15" s="1">
         <v>1.6387100000000001E-5</v>
@@ -6693,19 +6718,19 @@
     </row>
     <row r="16" spans="1:12">
       <c r="D16" t="s">
-        <v>402</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G16">
         <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J16">
         <v>3.5238999999999999E-2</v>
@@ -6715,20 +6740,23 @@
       </c>
     </row>
     <row r="17" spans="1:12">
+      <c r="A17" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1">
         <v>9.9999999999999995E-7</v>
@@ -6739,19 +6767,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="D18" t="s">
-        <v>441</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J18">
         <v>3.7854100000000002</v>
@@ -6762,19 +6790,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="D19" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="G19">
         <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -6784,23 +6812,23 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="16" t="s">
-        <v>7</v>
+      <c r="A20" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="G20">
         <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J20">
         <v>1E-3</v>
@@ -6811,19 +6839,19 @@
     </row>
     <row r="21" spans="1:12">
       <c r="D21" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J21" s="1">
         <v>1.0000000000000001E-9</v>
@@ -6834,19 +6862,19 @@
     </row>
     <row r="22" spans="1:12">
       <c r="D22" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="G22">
         <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J22" s="1">
         <v>9.9999999999999995E-7</v>
@@ -6857,19 +6885,19 @@
     </row>
     <row r="23" spans="1:12">
       <c r="D23" t="s">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="E23">
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J23">
         <v>0.47317599999999999</v>
@@ -6880,19 +6908,19 @@
     </row>
     <row r="24" spans="1:12">
       <c r="D24" t="s">
-        <v>143</v>
+        <v>409</v>
       </c>
       <c r="E24">
         <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>403</v>
+        <v>120</v>
       </c>
       <c r="G24">
         <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>404</v>
+        <v>121</v>
       </c>
       <c r="J24">
         <v>0.946353</v>
@@ -6903,12 +6931,12 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="10" t="s">
-        <v>6</v>
+        <v>424</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9" t="s">
-        <v>424</v>
+        <v>141</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -6916,7 +6944,7 @@
         <v>53</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>423</v>
+        <v>140</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -6924,27 +6952,27 @@
         <v>67</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G26">
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J26">
         <v>4046.86</v>
@@ -6955,19 +6983,19 @@
     </row>
     <row r="27" spans="1:12">
       <c r="D27" t="s">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G27">
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -6978,19 +7006,19 @@
     </row>
     <row r="28" spans="1:12">
       <c r="D28" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="G28">
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <v>10000</v>
@@ -7001,12 +7029,12 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="10" t="s">
-        <v>6</v>
+        <v>424</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -7014,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -7024,19 +7052,19 @@
     </row>
     <row r="30" spans="1:12">
       <c r="D30" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="J30">
         <v>1000</v>
@@ -7047,19 +7075,19 @@
     </row>
     <row r="31" spans="1:12">
       <c r="D31" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="J31" s="1">
         <v>1000000</v>
@@ -7070,19 +7098,19 @@
     </row>
     <row r="32" spans="1:12">
       <c r="D32" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="J32" s="1">
         <v>9.9999999999999995E-7</v>
@@ -7092,10 +7120,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7120,7 +7146,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>137</v>
+        <v>403</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7135,74 +7161,74 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="D3" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="K3">
         <v>366</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="D4" t="s">
-        <v>17</v>
+        <v>435</v>
       </c>
       <c r="G4">
         <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>124</v>
+        <v>390</v>
       </c>
       <c r="K4">
         <v>273</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7210,16 +7236,16 @@
         <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>150</v>
       </c>
       <c r="G5">
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -7230,22 +7256,22 @@
         <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="J6">
         <v>86400</v>
@@ -7259,22 +7285,22 @@
         <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="J7">
         <v>1.2458599999999999E-4</v>
@@ -7288,16 +7314,16 @@
         <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="G8">
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="K8">
         <v>26</v>
@@ -7308,16 +7334,16 @@
         <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G9">
         <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="K9">
         <v>113</v>
@@ -7328,22 +7354,22 @@
         <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G10">
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J10" s="1">
         <v>3.5277799999999998E-6</v>
@@ -7357,22 +7383,22 @@
         <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="E11">
         <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G11">
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J11">
         <v>26.822399999999998</v>
@@ -7386,22 +7412,22 @@
         <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J12">
         <v>0.30480000000000002</v>
@@ -7415,22 +7441,22 @@
         <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G13">
         <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J13" s="1">
         <v>8.4666999999999994E-5</v>
@@ -7444,22 +7470,22 @@
         <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="E14">
         <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G14">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J14">
         <v>1609.34</v>
@@ -7473,22 +7499,22 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="E15">
         <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G15">
         <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J15">
         <v>0.91439999999999999</v>
@@ -7502,22 +7528,22 @@
         <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="E16">
         <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G16">
         <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J16">
         <v>0.44703999999999999</v>
@@ -7531,22 +7557,22 @@
         <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="E17">
         <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J17">
         <v>0.01</v>
@@ -7560,22 +7586,22 @@
         <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="E18">
         <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G18">
         <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J18">
         <v>0.51444400000000001</v>
@@ -7589,22 +7615,22 @@
         <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J19">
         <v>0.27779999999999999</v>
@@ -7618,22 +7644,22 @@
         <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="E20">
         <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G20">
         <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J20">
         <v>1E-3</v>
@@ -7647,16 +7673,16 @@
         <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="K21">
         <v>333</v>
@@ -7664,19 +7690,19 @@
     </row>
     <row r="22" spans="2:11">
       <c r="D22" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="E22">
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G22">
         <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="J22" s="1">
         <v>3.17098E-10</v>
@@ -7690,16 +7716,16 @@
         <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -7710,22 +7736,22 @@
         <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>467</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -7739,22 +7765,22 @@
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="E25">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="J25">
         <v>28.3169</v>
@@ -7765,13 +7791,13 @@
     </row>
     <row r="26" spans="2:11">
       <c r="D26" t="s">
-        <v>61</v>
+        <v>479</v>
       </c>
       <c r="G26">
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="K26">
         <v>353</v>
@@ -7779,13 +7805,13 @@
     </row>
     <row r="27" spans="2:11">
       <c r="D27" t="s">
-        <v>62</v>
+        <v>480</v>
       </c>
       <c r="G27">
         <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="K27">
         <v>354</v>
@@ -7796,16 +7822,16 @@
         <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="G28">
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="K28">
         <v>37</v>
@@ -7816,22 +7842,22 @@
         <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="E29">
         <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1">
         <v>9.9999999999999995E-7</v>
@@ -7845,16 +7871,16 @@
         <v>278</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="G30">
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="K30">
         <v>323</v>
@@ -7865,16 +7891,16 @@
         <v>279</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="G31">
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="K31">
         <v>327</v>
@@ -7882,19 +7908,19 @@
     </row>
     <row r="32" spans="2:11">
       <c r="D32" t="s">
-        <v>151</v>
+        <v>417</v>
       </c>
       <c r="E32">
         <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="G32">
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1">
         <v>2.4E-8</v>
@@ -7908,16 +7934,16 @@
         <v>238</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="G33">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="K33">
         <v>108</v>
@@ -7925,13 +7951,13 @@
     </row>
     <row r="34" spans="2:11">
       <c r="D34" t="s">
-        <v>470</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>471</v>
+        <v>35</v>
       </c>
       <c r="K34">
         <v>370</v>
@@ -7942,16 +7968,16 @@
         <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="G35">
         <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K35">
         <v>112</v>
@@ -7962,16 +7988,16 @@
         <v>282</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="G36">
         <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K36">
         <v>315</v>
@@ -7982,16 +8008,16 @@
         <v>297</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="G37">
         <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K37">
         <v>322</v>
@@ -8002,16 +8028,16 @@
         <v>304</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="G38">
         <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K38">
         <v>319</v>
@@ -8022,22 +8048,22 @@
         <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="E39">
         <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="G39">
         <v>28</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K39">
         <v>324</v>
@@ -8045,13 +8071,13 @@
     </row>
     <row r="40" spans="2:11">
       <c r="D40" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="G40">
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K40">
         <v>283</v>
@@ -8059,13 +8085,13 @@
     </row>
     <row r="41" spans="2:11">
       <c r="D41" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="G41">
         <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K41">
         <v>360</v>
@@ -8073,13 +8099,13 @@
     </row>
     <row r="42" spans="2:11">
       <c r="D42" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="G42">
         <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K42">
         <v>304</v>
@@ -8087,19 +8113,19 @@
     </row>
     <row r="43" spans="2:11">
       <c r="D43" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="E43">
         <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="G43">
         <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="J43">
         <v>1000</v>
@@ -8110,13 +8136,13 @@
     </row>
     <row r="44" spans="2:11">
       <c r="D44" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="G44">
         <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K44">
         <v>239</v>
@@ -8124,13 +8150,13 @@
     </row>
     <row r="45" spans="2:11">
       <c r="D45" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="G45">
         <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="K45">
         <v>297</v>
@@ -8141,16 +8167,16 @@
         <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="G46">
         <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>477</v>
       </c>
       <c r="K46">
         <v>77</v>
@@ -8161,22 +8187,22 @@
         <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>475</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="E47">
         <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="G47">
         <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>477</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -8190,22 +8216,22 @@
         <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>412</v>
       </c>
       <c r="E48">
         <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>476</v>
       </c>
       <c r="G48">
         <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>477</v>
       </c>
       <c r="J48">
         <v>1000</v>
@@ -8216,13 +8242,13 @@
     </row>
     <row r="49" spans="2:11">
       <c r="D49" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G49">
         <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>477</v>
       </c>
       <c r="K49">
         <v>30</v>
@@ -8233,16 +8259,16 @@
         <v>216</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>410</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="K50">
         <v>41</v>
@@ -8253,22 +8279,22 @@
         <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="E51">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="J51" s="1">
         <v>9.9999999999999995E-7</v>
@@ -8282,16 +8308,16 @@
         <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>441</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="K52">
         <v>317</v>
@@ -8299,13 +8325,13 @@
     </row>
     <row r="53" spans="2:11">
       <c r="D53" t="s">
-        <v>381</v>
+        <v>98</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="K53">
         <v>357</v>
@@ -8313,13 +8339,13 @@
     </row>
     <row r="54" spans="2:11">
       <c r="D54" t="s">
-        <v>63</v>
+        <v>481</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="K54">
         <v>378</v>
@@ -8327,13 +8353,13 @@
     </row>
     <row r="55" spans="2:11">
       <c r="D55" t="s">
-        <v>109</v>
+        <v>375</v>
       </c>
       <c r="G55">
         <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="K55">
         <v>350</v>
@@ -8344,22 +8370,22 @@
         <v>298</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>426</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>427</v>
       </c>
       <c r="E56">
         <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G56">
         <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J56">
         <v>0.1</v>
@@ -8370,19 +8396,19 @@
     </row>
     <row r="57" spans="2:11">
       <c r="D57" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="E57">
         <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G57">
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J57">
         <v>2.4710999999999998E-4</v>
@@ -8393,19 +8419,19 @@
     </row>
     <row r="58" spans="2:11">
       <c r="D58" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E58">
         <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G58">
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J58" s="1">
         <v>9.9999999999999995E-7</v>
@@ -8416,13 +8442,13 @@
     </row>
     <row r="59" spans="2:11">
       <c r="D59" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G59">
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K59">
         <v>107</v>
@@ -8430,13 +8456,13 @@
     </row>
     <row r="60" spans="2:11">
       <c r="D60" t="s">
-        <v>141</v>
+        <v>407</v>
       </c>
       <c r="G60">
         <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K60">
         <v>365</v>
@@ -8444,13 +8470,13 @@
     </row>
     <row r="61" spans="2:11">
       <c r="D61" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="G61">
         <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K61">
         <v>384</v>
@@ -8458,28 +8484,28 @@
     </row>
     <row r="62" spans="2:11">
       <c r="D62" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="G62">
         <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K62">
         <v>392</v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="D63" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="15"/>
+      <c r="D63" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" s="16"/>
       <c r="G63">
         <v>58</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="K63">
         <v>350</v>
@@ -8490,22 +8516,22 @@
         <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>426</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>427</v>
       </c>
       <c r="E64">
         <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G64">
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J64">
         <v>0.1</v>
@@ -8516,19 +8542,19 @@
     </row>
     <row r="65" spans="4:11">
       <c r="D65" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="E65">
         <v>107</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G65">
         <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J65">
         <v>2.4710999999999998E-4</v>
@@ -8539,19 +8565,19 @@
     </row>
     <row r="66" spans="4:11">
       <c r="D66" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E66">
         <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G66">
         <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="J66" s="1">
         <v>9.9999999999999995E-7</v>
@@ -8562,28 +8588,28 @@
     </row>
     <row r="67" spans="4:11">
       <c r="D67" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="G67">
         <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K67">
         <v>107</v>
       </c>
     </row>
     <row r="68" spans="4:11">
-      <c r="D68" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="15"/>
+      <c r="D68" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="16"/>
       <c r="G68">
         <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K68">
         <v>365</v>
@@ -8591,13 +8617,13 @@
     </row>
     <row r="69" spans="4:11">
       <c r="D69" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="G69">
         <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K69">
         <v>384</v>
@@ -8605,13 +8631,13 @@
     </row>
     <row r="70" spans="4:11">
       <c r="D70" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="G70">
         <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="K70">
         <v>392</v>
@@ -8619,20 +8645,19 @@
     </row>
     <row r="71" spans="4:11">
       <c r="D71" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="G71">
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="K71">
         <v>359</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D68:E68"/>
@@ -8660,7 +8685,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>28</v>
+        <v>446</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8675,40 +8700,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8716,26 +8741,25 @@
         <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>316</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>123</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -8759,7 +8783,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>448</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8775,54 +8799,54 @@
     <row r="2" spans="1:12">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>348</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>349</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="D3" t="s">
-        <v>140</v>
+        <v>406</v>
       </c>
       <c r="E3">
         <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>307</v>
@@ -8830,7 +8854,7 @@
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1">
       <c r="D4" s="12" t="s">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="K4" s="12">
         <v>398</v>
@@ -8838,7 +8862,7 @@
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1">
       <c r="D5" s="12" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="K5" s="12">
         <v>367</v>
@@ -8846,7 +8870,7 @@
     </row>
     <row r="6" spans="1:12" s="12" customFormat="1">
       <c r="D6" s="12" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="K6" s="12">
         <v>375</v>
@@ -8854,7 +8878,7 @@
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1">
       <c r="D7" s="12" t="s">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="K7" s="12">
         <v>376</v>
@@ -8862,7 +8886,7 @@
     </row>
     <row r="8" spans="1:12" s="12" customFormat="1">
       <c r="D8" s="12" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="K8" s="12">
         <v>379</v>
@@ -8870,7 +8894,7 @@
     </row>
     <row r="9" spans="1:12" s="12" customFormat="1">
       <c r="D9" s="12" t="s">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="K9" s="12">
         <v>383</v>
@@ -8878,7 +8902,7 @@
     </row>
     <row r="10" spans="1:12" s="12" customFormat="1">
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>436</v>
       </c>
       <c r="K10" s="12">
         <v>386</v>
@@ -8886,7 +8910,7 @@
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1">
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="K11" s="12">
         <v>387</v>
@@ -8894,7 +8918,7 @@
     </row>
     <row r="12" spans="1:12" s="12" customFormat="1">
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="K12" s="12">
         <v>388</v>
@@ -8902,7 +8926,7 @@
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1">
       <c r="D13" s="12" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="K13" s="12">
         <v>390</v>
@@ -8910,7 +8934,7 @@
     </row>
     <row r="14" spans="1:12" s="12" customFormat="1">
       <c r="D14" s="12" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="K14" s="12">
         <v>391</v>
@@ -8918,7 +8942,7 @@
     </row>
     <row r="15" spans="1:12" s="12" customFormat="1">
       <c r="D15" s="12" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="K15" s="12">
         <v>393</v>
@@ -8926,7 +8950,7 @@
     </row>
     <row r="16" spans="1:12" s="12" customFormat="1">
       <c r="D16" s="12" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
       <c r="K16" s="12">
         <v>397</v>
@@ -8934,13 +8958,13 @@
     </row>
     <row r="17" spans="4:11">
       <c r="D17" s="12" t="s">
-        <v>91</v>
+        <v>357</v>
       </c>
       <c r="G17">
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="K17">
         <v>396</v>
@@ -8948,13 +8972,13 @@
     </row>
     <row r="18" spans="4:11">
       <c r="D18" s="12" t="s">
-        <v>54</v>
+        <v>472</v>
       </c>
       <c r="G18">
         <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="K18">
         <v>382</v>
@@ -8962,13 +8986,13 @@
     </row>
     <row r="19" spans="4:11">
       <c r="D19" s="12" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="G19">
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>380</v>
@@ -8976,13 +9000,13 @@
     </row>
     <row r="20" spans="4:11" s="12" customFormat="1">
       <c r="D20" s="12" t="s">
-        <v>487</v>
+        <v>51</v>
       </c>
       <c r="G20" s="12">
         <v>32</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="K20" s="12">
         <v>371</v>
@@ -8990,13 +9014,13 @@
     </row>
     <row r="21" spans="4:11" s="12" customFormat="1">
       <c r="D21" s="12" t="s">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="G21" s="12">
         <v>32</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="K21" s="12">
         <v>372</v>
@@ -9004,20 +9028,19 @@
     </row>
     <row r="22" spans="4:11" s="12" customFormat="1">
       <c r="D22" s="12" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="G22" s="12">
         <v>32</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="K22" s="12">
         <v>373</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
